--- a/Tarefa_3/Teste de Mesa Fracao.xlsx
+++ b/Tarefa_3/Teste de Mesa Fracao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleialisondossantosrezende/Documents/Projetos/Linguagem-de-Programacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleialisondossantosrezende/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085C2E0-1E39-5E45-B6CD-8EF4B047D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03274AB2-C159-A540-AB84-DADB35A4437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9600B9F2-3ACF-4CEC-8CAF-BB88A0C561BF}"/>
+    <workbookView xWindow="34200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9600B9F2-3ACF-4CEC-8CAF-BB88A0C561BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,6 +292,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,13 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27151FD5-59FE-491F-A056-59E3A99BD840}">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,13 +656,13 @@
   <sheetData>
     <row r="2" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -679,12 +679,12 @@
       </c>
       <c r="F4" s="4">
         <f>(B5*D4)+(B4*D5)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -693,7 +693,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7">
         <f>B5*D5</f>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -704,13 +704,13 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
@@ -745,23 +745,23 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -788,7 +788,7 @@
       </c>
       <c r="I12" s="4">
         <f>(H12*F13)+(H13*F12)</f>
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>0</v>
@@ -812,19 +812,19 @@
       </c>
       <c r="I13" s="7">
         <f>F13*H13</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
@@ -867,24 +867,24 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
@@ -938,17 +938,17 @@
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
@@ -1010,14 +1010,14 @@
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
@@ -1053,13 +1053,13 @@
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
